--- a/analysis/metadata/P04_2/P04_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_2/P04_2_minimal_metadata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -489,11 +489,6 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -521,7 +516,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -531,7 +526,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -547,11 +542,6 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -579,7 +569,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -589,7 +579,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -605,11 +595,6 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -637,7 +622,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -647,7 +632,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -663,11 +648,6 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -695,7 +675,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -705,7 +685,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -721,11 +701,6 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -753,7 +728,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -763,7 +738,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -779,11 +754,6 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -811,7 +781,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -821,7 +791,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -837,11 +807,6 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -869,7 +834,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -879,7 +844,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -895,11 +860,6 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -927,7 +887,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -937,7 +897,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -953,11 +913,6 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -985,7 +940,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -995,7 +950,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1011,11 +966,6 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1043,7 +993,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1053,7 +1003,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1069,11 +1019,6 @@
       <c r="L12" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1046,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1111,7 +1056,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>02/12/2019 00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1127,11 +1072,6 @@
       <c r="L13" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1099,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1169,7 +1109,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 04:04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1190,11 +1130,6 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1157,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1232,7 +1167,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 04:05</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1253,11 +1188,6 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1215,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1295,7 +1225,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 04:08</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1316,11 +1246,6 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1273,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1358,7 +1283,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 04:09</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1379,11 +1304,6 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1331,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1421,7 +1341,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 04:10</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1442,11 +1362,6 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1389,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1484,7 +1399,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:12</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1505,11 +1420,6 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1447,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1547,7 +1457,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:15</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1568,11 +1478,6 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1505,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1610,7 +1515,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:16</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1631,11 +1536,6 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1563,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1673,7 +1573,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:17</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1694,11 +1594,6 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1621,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1736,7 +1631,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:17</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1757,11 +1652,6 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1679,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1799,7 +1689,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:18</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1820,11 +1710,6 @@
       <c r="L24" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1737,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1862,7 +1747,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:19</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1883,11 +1768,6 @@
       <c r="L25" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1795,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1925,7 +1805,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:19</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1946,11 +1826,6 @@
       <c r="L26" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1853,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1988,7 +1863,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:20</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2009,11 +1884,6 @@
       <c r="L27" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -2041,7 +1911,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2051,7 +1921,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:21</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2072,11 +1942,6 @@
       <c r="L28" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -2104,7 +1969,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2114,7 +1979,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:21</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2135,11 +2000,6 @@
       <c r="L29" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2027,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2177,7 +2037,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:22</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2198,11 +2058,6 @@
       <c r="L30" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2085,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>AGRICULTURE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2240,7 +2095,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 05:23</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2261,11 +2116,6 @@
       <c r="L31" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Fields</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P04_2/P04_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_2/P04_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>02/12/2019 00:00</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>04/08/2020 04:04</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>04/08/2020 04:05</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>04/08/2020 04:08</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>04/08/2020 04:09</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>04/08/2020 04:10</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>04/08/2020 05:12</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>04/08/2020 05:15</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>04/08/2020 05:16</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>04/08/2020 05:17</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>04/08/2020 05:17</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>04/08/2020 05:18</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>04/08/2020 05:19</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>04/08/2020 05:19</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>04/08/2020 05:20</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>04/08/2020 05:21</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>04/08/2020 05:21</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>04/08/2020 05:22</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>04/08/2020 05:23</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">

--- a/analysis/metadata/P04_2/P04_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_2/P04_2_minimal_metadata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -489,6 +489,26 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -542,6 +562,26 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -569,7 +609,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -595,6 +635,26 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -622,7 +682,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -648,6 +708,26 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -675,7 +755,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,6 +781,26 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -728,7 +828,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -754,6 +854,26 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -781,7 +901,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -807,6 +927,26 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -834,7 +974,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -860,6 +1000,26 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -887,7 +1047,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -913,6 +1073,26 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -940,7 +1120,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -966,6 +1146,26 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -993,7 +1193,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1019,6 +1219,26 @@
       <c r="L12" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1266,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1072,6 +1292,26 @@
       <c r="L13" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1339,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1130,6 +1370,26 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1417,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1188,6 +1448,26 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1495,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1246,6 +1526,26 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1573,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1304,6 +1604,26 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1651,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1362,6 +1682,26 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1729,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1420,6 +1760,26 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1807,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1478,6 +1838,26 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1885,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1536,6 +1916,26 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1963,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1594,6 +1994,26 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1621,7 +2041,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1652,6 +2072,26 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1679,7 +2119,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1710,6 +2150,26 @@
       <c r="L24" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1737,7 +2197,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1768,6 +2228,26 @@
       <c r="L25" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1795,7 +2275,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1826,6 +2306,26 @@
       <c r="L26" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1853,7 +2353,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1884,6 +2384,26 @@
       <c r="L27" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1911,7 +2431,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1942,6 +2462,26 @@
       <c r="L28" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -1969,7 +2509,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2000,6 +2540,26 @@
       <c r="L29" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2587,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2058,6 +2618,26 @@
       <c r="L30" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2665,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2116,6 +2696,26 @@
       <c r="L31" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Mixed crops</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Cereal mix, Legume plants</t>
         </is>
       </c>
     </row>
